--- a/1749/资讯中心 - 展讯.xlsx
+++ b/1749/资讯中心 - 展讯.xlsx
@@ -48,13 +48,13 @@
   </si>
   <si>
     <t xml:space="preserve">
-    海外房地产开发商及代理商
-    移民代理、因私出入境服务机构
-    律师事务所
-    投资及咨询公司
-    留学及培训机构
-    政府协会、商会
-    银行及金融理财机构 
+海外房地产开发商及代理商
+移民代理、因私出入境服务机构
+律师事务所
+投资及咨询公司
+留学及培训机构
+政府协会、商会
+银行及金融理财机构 
 </t>
   </si>
   <si>
@@ -68,7 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-【汇聚全球优质项目 直面高端卖家】
 海外置业移民投资展每年举办3届，年规模在1万平米以上，年吸引来自全球300家知名房地产开发商，集中展示高品质海外地产和移民项目。上海海外置业移民投资展是海外展商开拓中国市场推介海外地产项目的最佳平台，为您提供直面中国高端卖家的机会，展会每年超过100,000人次观众亲临现场，极大提升您在中国海外置业市场的知名度。
 </t>
   </si>
@@ -103,12 +102,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,14 +125,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,14 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,37 +238,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,55 +260,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,31 +277,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,25 +313,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,24 +344,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,31 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +437,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -479,11 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,21 +491,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,26 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +542,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -576,157 +559,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,9 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1104,10 +1093,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -17516,7 +17505,7 @@
       <c r="XFC2" s="2"/>
       <c r="XFD2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="148.5" spans="1:16384">
+    <row r="3" s="1" customFormat="1" ht="135" spans="1:16384">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
